--- a/biology/Botanique/Paul_Mazliak/Paul_Mazliak.xlsx
+++ b/biology/Botanique/Paul_Mazliak/Paul_Mazliak.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Mazliak est un chercheur en physiologie cellulaire et historien des sciences, militant communiste et syndicaliste français, né le 4 mars 1936 à Paris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Mazliak est un chercheur en physiologie cellulaire et historien des sciences, militant communiste et syndicaliste français, né le 4 mars 1936 à Paris.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Mazliak naît de parents apatrides, réfugiés de Pologne et d'URSS, respectivement électricien et sans profession, qui sont déportés à Auschwitz en 1942[1]. Pupille de la Nation, il obtient le baccalauréat en 1953 au lycée Voltaire à Paris, puis un doctorat de l'Université de Paris en 1963[1]. 
-Il est professeur de physiologie végétale à l'université de Reims de 1965 à 1967 puis professeur de biologie cellulaire à l'Université Pierre-et-Marie-Curie de 1967 à 1997[2] et directeur du laboratoire de physiologie cellulaire et moléculaire de l'UPMC[3]. 
-Il est membre du PCF de 1954 à 1996 et participe aux Espaces Marx et à la Fondation Gabriel Péri[1]. Il est également membre de l'UNEF de 1954 à 1959, puis du SNESUP de 1960 à 1996, dont il est secrétaire général en 1974-1975[1]. 
-Il écrit de nombreux ouvrages d'enseignement et d'histoire des sciences. Il reçoit la médaille de bronze du CNRS en 1963 et est nommé docteur honoris causa de l'Université de Neuchâtel[1]. 
-Il épouse Céline Boulonnois le 13 juillet 1957, avec laquelle il a deux enfants: Catherine, professeur de musique et bibliothécaire, et Laurent, mathématicien et historien des mathématiques à Sorbonne-Université (Paris)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Mazliak naît de parents apatrides, réfugiés de Pologne et d'URSS, respectivement électricien et sans profession, qui sont déportés à Auschwitz en 1942. Pupille de la Nation, il obtient le baccalauréat en 1953 au lycée Voltaire à Paris, puis un doctorat de l'Université de Paris en 1963. 
+Il est professeur de physiologie végétale à l'université de Reims de 1965 à 1967 puis professeur de biologie cellulaire à l'Université Pierre-et-Marie-Curie de 1967 à 1997 et directeur du laboratoire de physiologie cellulaire et moléculaire de l'UPMC. 
+Il est membre du PCF de 1954 à 1996 et participe aux Espaces Marx et à la Fondation Gabriel Péri. Il est également membre de l'UNEF de 1954 à 1959, puis du SNESUP de 1960 à 1996, dont il est secrétaire général en 1974-1975. 
+Il écrit de nombreux ouvrages d'enseignement et d'histoire des sciences. Il reçoit la médaille de bronze du CNRS en 1963 et est nommé docteur honoris causa de l'Université de Neuchâtel. 
+Il épouse Céline Boulonnois le 13 juillet 1957, avec laquelle il a deux enfants: Catherine, professeur de musique et bibliothécaire, et Laurent, mathématicien et historien des mathématiques à Sorbonne-Université (Paris).
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brève histoire de l'anatomie de l'Antiquité à André Vésale, 2018.
 Félix Vicq d'Azyr, créateur révolutionnaire de l'anatomie comparée, 2017.
